--- a/ExcelWorkbook1/ExcelWorkbook1/bin/Debug/Plantilla.xlsx
+++ b/ExcelWorkbook1/ExcelWorkbook1/bin/Debug/Plantilla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danyl\OneDrive\Documentos\Oficios\Documentos\Plantilla EEFF\ExcelWorkbook1\ExcelWorkbook1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GT02\Desktop\Trabajos DRVA\Archivos Programados\ExcelWorkbook1\ExcelWorkbook1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD57205-D33A-42A8-8E79-023DDDC99BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFB0801-8080-4BA5-ADB5-BC649679C8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{A63E82B5-9C6C-43B2-86D7-6A5116D57CAC}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{A63E82B5-9C6C-43B2-86D7-6A5116D57CAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,68 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+  <si>
+    <t>Nombre de la Empresa</t>
+  </si>
+  <si>
+    <t>Estados Resultados</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Costo de Ventas</t>
+  </si>
+  <si>
+    <t>Margen Bruto</t>
+  </si>
+  <si>
+    <t>Gasto de Venta</t>
+  </si>
+  <si>
+    <t>Gasto de Administracion</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>Depreciacion</t>
+  </si>
+  <si>
+    <t>ERIT</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>NOPAD</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
+  <si>
+    <t>UTILIDAD NETA</t>
+  </si>
+  <si>
+    <t>Datos Adicionales</t>
+  </si>
+  <si>
+    <t>PBI</t>
+  </si>
+  <si>
+    <t>Inflacion</t>
+  </si>
+  <si>
+    <t>Duracion</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +93,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,15 +139,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -75,6 +189,40 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="44E49FB7E4A65A440C54A9644C76C004402234"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3942"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="820"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3FAA5889239F1C34CE93A3F9355C1A2AE64763"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3889"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="741"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -97,16 +245,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -116,7 +264,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49803A11-706B-4507-A1E4-4A174D5AAC66}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -136,27 +284,140 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
                   </a:solidFill>
-                  <a:prstDash val="solid"/>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
-                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:tailEnd/>
                 </a14:hiddenLine>
               </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="_ActiveXWrapper4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="_ActiveXWrapper3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BA8D874-ADAF-4C5E-B14A-47976FDFC598}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -467,15 +728,121 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B09D8FF-707F-4A8E-8A7B-355837E8E831}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -483,27 +850,77 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>438150</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="_ActiveXWrapper2"/>
+        <control shapeId="1028" r:id="rId4" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId6" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>342900</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId8" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -515,7 +932,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08F126AC-298A-4F98-8B3A-52A6B5BDA92F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB5B6065-9FDB-450C-82CC-183D01D3D8EB}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>